--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2902180.084435288</v>
+        <v>3006359.71888636</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>75.45713216103655</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>128.3344840049804</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.197497466651</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>258.0563363673481</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.99649157474421</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>143.3019293755537</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>27.70939936695445</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.9083821604494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.5442597171365</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>162.8008219374168</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>82.75940814029076</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>169.2299870234509</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.11937003877873</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722621</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.176011444184</v>
+        <v>212.3267021497101</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>39.99000985192075</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5006452705931</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>32.4720786658932</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4863975071912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>82.88550891432338</v>
       </c>
       <c r="W25" t="n">
-        <v>54.10799870228475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>7.61374123523328</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>73.57849775387122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>138.1441996497207</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>133.983849834638</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>21.23835815356811</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>71.05846343488126</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>33.82891891787487</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>131.952790326202</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.84316668127781</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>100.5140508960357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>151.0446456820666</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8460632289448</v>
+        <v>137.0965178272088</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9977502341333</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.197050312641</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1514.197050312641</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="V4" t="n">
-        <v>1514.197050312641</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.779880275681</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7903293776634</v>
+        <v>1127.044958489905</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.9977502341333</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4604,13 +4606,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>1927.225962568968</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213862</v>
+        <v>1537.086630593157</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>2095.592689870584</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>1926.656506942677</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>1926.656506942677</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>2505.230705598841</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>2277.241154700824</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>2277.241154700824</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866151</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.407165890339</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.322087337517</v>
+        <v>692.3528358643467</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X10" t="n">
-        <v>708.9705521677568</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.9705521677568</v>
+        <v>874.0013006945865</v>
       </c>
     </row>
     <row r="11">
@@ -5024,64 +5026,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.155899672379</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859342</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>747.3584617859342</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5762,28 +5764,28 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3167.361685286661</v>
+        <v>3228.447361044447</v>
       </c>
       <c r="C22" t="n">
-        <v>2998.425502358754</v>
+        <v>3059.511178116541</v>
       </c>
       <c r="D22" t="n">
-        <v>2998.425502358754</v>
+        <v>2909.394538704205</v>
       </c>
       <c r="E22" t="n">
-        <v>2850.512408776361</v>
+        <v>2761.481445121812</v>
       </c>
       <c r="F22" t="n">
-        <v>2703.62246127845</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G22" t="n">
-        <v>2536.42636199333</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673038</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467151</v>
+        <v>3966.646661122955</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430191</v>
+        <v>3677.229491085995</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430191</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286661</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6005,28 +6007,28 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913445</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300424</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711125</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950412</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796738</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868831</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456495</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874102</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376192</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673936</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018134</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812247</v>
+        <v>1604.663117577612</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668525</v>
+        <v>1315.245947540652</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770508</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>866.4638174991042</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6208,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310363</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310363</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644064</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231728</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649335</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.17973854574</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.38715940221</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,10 +6548,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.872235754091</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C31" t="n">
-        <v>853.936052826184</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>315.4429620058367</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.302830625878</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.313279727861</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.520700584331</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6697,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276705</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831312</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070599</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.402603663004</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C34" t="n">
-        <v>776.4664207350971</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227614</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403683</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4366877403683</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>311.2405884552482</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1412.248478625013</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>853.5941094450255</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326898</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>3314.305816915985</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7427,31 +7429,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118212</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289433</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>3051.062654156518</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.062654156518</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711125</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950412</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.19349744548</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356194</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7606,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.172021309389</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.890584782709</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
   </sheetData>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.136594450213864e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.7126101431586</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>88.1882574310826</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.0084629450601</v>
+        <v>73.85777223953403</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>127.2568112467071</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>112.948969357038</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.80831533903267</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>169.2521344095046</v>
       </c>
       <c r="W25" t="n">
-        <v>232.4149996343062</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>210.9709121168615</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.03697526434114</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.150513196503198</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.310863011585866</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>265.2846401830229</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168791</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>106.465793928349</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>47.87918985573532</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5907959652914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>186.0089474405553</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>67.54000767002822</v>
       </c>
     </row>
     <row r="44">
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>61.40075786968302</v>
+        <v>30.15030327141901</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365053</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551168</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678115</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10557.08828678116</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10557.08828678116</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10557.08828678116</v>
+      </c>
+      <c r="I4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678125</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678127</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26454,10 +26456,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
     </row>
     <row r="5">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828537.3049624775</v>
+        <v>-828537.3049624774</v>
       </c>
       <c r="C6" t="n">
         <v>500207.4407651151</v>
       </c>
       <c r="D6" t="n">
-        <v>500207.4407651151</v>
+        <v>500207.4407651149</v>
       </c>
       <c r="E6" t="n">
-        <v>248982.5298184621</v>
+        <v>248982.5298184622</v>
       </c>
       <c r="F6" t="n">
-        <v>574394.9916258174</v>
+        <v>574394.9916258175</v>
       </c>
       <c r="G6" t="n">
-        <v>574394.9916258173</v>
+        <v>574394.9916258171</v>
       </c>
       <c r="H6" t="n">
         <v>574394.9916258175</v>
@@ -26543,25 +26545,25 @@
         <v>574394.9916258175</v>
       </c>
       <c r="J6" t="n">
-        <v>356863.7892285394</v>
+        <v>356863.7892285399</v>
       </c>
       <c r="K6" t="n">
-        <v>574394.9916258176</v>
+        <v>574394.9916258174</v>
       </c>
       <c r="L6" t="n">
+        <v>574394.9916258173</v>
+      </c>
+      <c r="M6" t="n">
+        <v>489339.9636903054</v>
+      </c>
+      <c r="N6" t="n">
         <v>574394.9916258175</v>
       </c>
-      <c r="M6" t="n">
-        <v>489339.9636903057</v>
-      </c>
-      <c r="N6" t="n">
-        <v>574394.9916258173</v>
-      </c>
       <c r="O6" t="n">
-        <v>574394.9916258175</v>
+        <v>574394.991625817</v>
       </c>
       <c r="P6" t="n">
-        <v>574394.9916258173</v>
+        <v>574394.9916258174</v>
       </c>
     </row>
   </sheetData>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>289.815759609971</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>257.9034546510732</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3514518095182098</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>28.15550183826474</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.7373500887364</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>258.8135989696365</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.67627119164536</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1895819463441</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>223.4371167186368</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>84.48741295833707</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>56.47966836558621</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28810,13 +28812,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-3.762168557157542e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-7.5791225147744e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-7.5791225147744e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-7.5791225147744e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-7.5791225147744e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-7.5791225147744e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-7.5791225147744e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-7.5791225147744e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-7.5791225147744e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-7.5791225147744e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29101,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -30526,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.5427724581384</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>327.118592441407</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32709,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>604.2458225991924</v>
+        <v>579.8936048175469</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>305.1876769472509</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33983,7 +33985,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34208,16 +34210,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>476.0648089385462</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>327.118592441407</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.5609983721169</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>472.904110515859</v>
+        <v>448.5518927342137</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>167.3462379728919</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37633,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,16 +37858,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>337.510429158672</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3006359.71888636</v>
+        <v>3002347.108872368</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8548760.030614415</v>
+        <v>8548760.030614413</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>191.2490250244965</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>128.3344840049804</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>116.6286547214874</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>258.0563363673481</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>143.3019293755537</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>27.70939936695445</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="Y8" t="n">
-        <v>162.8008219374168</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>82.75940814029076</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444117</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>60.42721558712974</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>105.846063228944</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>212.3267021497101</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>39.99000985192075</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>32.4720786658932</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>82.88550891432338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.61374123523328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>138.1441996497207</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>252.4188248364702</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>21.23835815356811</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>33.82891891787487</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>131.952790326202</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.0446456820666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>137.0965178272088</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,19 +4185,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1513.341883274785</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C2" t="n">
-        <v>1144.379366334374</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>786.1136677276232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.57251526313</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.941723338907</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>815.7608990065712</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>646.8247160786643</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1355.034509387922</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V4" t="n">
-        <v>1355.034509387922</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W4" t="n">
-        <v>1355.034509387922</v>
+        <v>1446.191493878358</v>
       </c>
       <c r="X4" t="n">
-        <v>1127.044958489905</v>
+        <v>1218.201942980341</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>997.4093638368109</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1927.225962568968</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1537.086630593157</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2095.592689870584</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>1926.656506942677</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>1926.656506942677</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>1778.743413360284</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>1778.743413360284</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>1611.040576735003</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>2822.322864763051</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>2533.219997888694</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>2533.219997888694</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>2505.230705598841</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>2277.241154700824</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>2277.241154700824</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1257.755181644084</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>888.7926647036722</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>530.5269660969217</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.355021708206</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.3528358643467</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592604</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>874.0013006945865</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>874.0013006945865</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362665</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2495.978408795859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>741.8431516380876</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>741.8431516380876</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>591.7265122257519</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683274</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,58 +5266,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1762.98966419767</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1508.305175991783</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,25 +5503,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,16 +5843,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3228.447361044447</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C22" t="n">
-        <v>3059.511178116541</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D22" t="n">
-        <v>2909.394538704205</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E22" t="n">
-        <v>2761.481445121812</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328842</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122955</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.229491085995</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.239940187977</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.447361044447</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991042</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1604.663117577612</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1315.245947540652</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1087.256396642634</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>866.4638174991042</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433381</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311994</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032925</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>482.6390612909568</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>482.6390612909568</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>482.6390612909568</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>315.4429620058367</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614391</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.8178837532263</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W34" t="n">
-        <v>1412.248478625013</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>1184.258927726996</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.466348583466</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>274.8772357154528</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>127.9872882175424</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>127.9872882175424</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2716.927329289434</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3314.305816915985</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.8178837532264</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,25 +7490,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>991.7138464380538</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7730,13 +7730,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>986.1256051221279</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1616.556199993915</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1388.566649095898</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1167.774069952368</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.136594450213864e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>88.1882574310826</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>40.58789941762521</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>73.85777223953403</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>127.2568112467071</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>112.948969357038</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>45.44677382459292</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>169.2521344095046</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>210.9709121168615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.150513196503198</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>33.76564955277397</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>265.2846401830229</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>106.465793928349</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.87918985573532</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.54000767002822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>30.15030327141901</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.609736506</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365054</v>
@@ -26334,28 +26334,28 @@
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551168</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813252</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89744.12305813245</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813251</v>
       </c>
-      <c r="C4" t="n">
-        <v>89744.12305813251</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813246</v>
-      </c>
       <c r="E4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.0882867813</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26459,7 +26459,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828537.3049624774</v>
+        <v>-828537.3049624773</v>
       </c>
       <c r="C6" t="n">
         <v>500207.4407651151</v>
       </c>
       <c r="D6" t="n">
-        <v>500207.4407651149</v>
+        <v>500207.440765115</v>
       </c>
       <c r="E6" t="n">
-        <v>248982.5298184622</v>
+        <v>248635.1505641055</v>
       </c>
       <c r="F6" t="n">
-        <v>574394.9916258175</v>
+        <v>574047.6123714604</v>
       </c>
       <c r="G6" t="n">
-        <v>574394.9916258171</v>
+        <v>574047.6123714602</v>
       </c>
       <c r="H6" t="n">
-        <v>574394.9916258175</v>
+        <v>574047.6123714604</v>
       </c>
       <c r="I6" t="n">
-        <v>574394.9916258175</v>
+        <v>574047.6123714604</v>
       </c>
       <c r="J6" t="n">
-        <v>356863.7892285399</v>
+        <v>356516.4099741828</v>
       </c>
       <c r="K6" t="n">
-        <v>574394.9916258174</v>
+        <v>574047.6123714603</v>
       </c>
       <c r="L6" t="n">
-        <v>574394.9916258173</v>
+        <v>574047.6123714605</v>
       </c>
       <c r="M6" t="n">
-        <v>489339.9636903054</v>
+        <v>488992.5844359485</v>
       </c>
       <c r="N6" t="n">
-        <v>574394.9916258175</v>
+        <v>574047.6123714604</v>
       </c>
       <c r="O6" t="n">
-        <v>574394.991625817</v>
+        <v>574047.6123714604</v>
       </c>
       <c r="P6" t="n">
-        <v>574394.9916258174</v>
+        <v>574047.6123714603</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>174.0238667465111</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>257.9034546510732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>31.98681829672492</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>28.15550183826474</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>307.2767095024427</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>226.4291713029153</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>258.8135989696365</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.06888189215</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.4371167186368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>84.48741295833707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>19.03887597603349</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28812,13 +28812,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.762168557157542e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.6314956130953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>624.1318526922785</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.118592441407</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32709,34 +32709,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>579.8936048175469</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>253.6713445157994</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>539.0475940357389</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,10 +34210,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.118592441407</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,7 +34459,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.64972152707382</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>481.5356082478341</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>448.5518927342137</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>122.3296324324661</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>396.4513495912944</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,10 +37858,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,7 +38107,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3002347.108872368</v>
+        <v>3004107.639175152</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8548760.030614413</v>
+        <v>8548760.030614415</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>191.2490250244965</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>129.1643093334195</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>116.6286547214874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.4571321610379</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>77.92383158564684</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>72.4208103954751</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>126.5388824951711</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>201.6622187863191</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>77.31354443380459</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>187.433061197385</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206823</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444117</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>105.846063228944</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731121</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187858</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>64.4060130769136</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.92847288552876</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>252.4188248364702</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495403</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4363,19 +4363,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="3">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>815.7608990065712</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>646.8247160786643</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
         <v>529.0179941377679</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.608663915319</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1446.191493878358</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1218.201942980341</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>997.4093638368109</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
         <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>434.46749124529</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>286.5543976628969</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>139.6644501649866</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>651.3985183731436</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3260682181401</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4846,10 +4846,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>144.6066057592588</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>144.6066057592588</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1737.96822364669</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1516.201608216216</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1227.09874134186</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362665</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380876</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>741.8431516380876</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>591.7265122257519</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683274</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5320,10 +5320,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5655,16 +5655,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.7594328861248</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C22" t="n">
-        <v>390.823249958218</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458822</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>382.6717764234295</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.607197794873</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.190027757912</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>962.2004768598947</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.4078977163646</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,19 +6010,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6703,19 +6703,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>40.58789941762521</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>104.8770068749576</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.44677382459292</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>33.76564955277397</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="15">
@@ -26316,25 +26316,25 @@
         <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846407</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365055</v>
@@ -26343,19 +26343,19 @@
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.0882867813</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26441,7 +26441,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828537.3049624773</v>
+        <v>-828537.3049624774</v>
       </c>
       <c r="C6" t="n">
+        <v>500207.4407651153</v>
+      </c>
+      <c r="D6" t="n">
         <v>500207.4407651151</v>
       </c>
-      <c r="D6" t="n">
-        <v>500207.440765115</v>
-      </c>
       <c r="E6" t="n">
-        <v>248635.1505641055</v>
+        <v>248947.7918930265</v>
       </c>
       <c r="F6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003814</v>
       </c>
       <c r="G6" t="n">
-        <v>574047.6123714602</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="H6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="I6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="J6" t="n">
-        <v>356516.4099741828</v>
+        <v>356829.051303104</v>
       </c>
       <c r="K6" t="n">
-        <v>574047.6123714603</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="L6" t="n">
-        <v>574047.6123714605</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="M6" t="n">
-        <v>488992.5844359485</v>
+        <v>489305.2257648697</v>
       </c>
       <c r="N6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="O6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="P6" t="n">
-        <v>574047.6123714603</v>
+        <v>574360.2537003818</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>174.0238667465111</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>277.7117364082919</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.98681829672492</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>308.3141070704067</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>93.60499786355312</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>168.0688818921494</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>168.06888189215</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>19.03887597603349</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>2.335964134056866</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.429578708524912e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
